--- a/teaching/traditional_assets/database/data/vietnam/vietnam_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/vietnam/vietnam_insurance_prop_cas.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.174</v>
+        <v>0.13</v>
       </c>
       <c r="E2">
-        <v>0.0919</v>
+        <v>0.235</v>
       </c>
       <c r="G2">
-        <v>0.06050753370341</v>
+        <v>0.05996287128712871</v>
       </c>
       <c r="H2">
-        <v>0.06050753370341</v>
+        <v>0.05996287128712871</v>
       </c>
       <c r="I2">
-        <v>0.05408406026962729</v>
+        <v>0.07608258823498562</v>
       </c>
       <c r="J2">
-        <v>0.04109486383937311</v>
+        <v>0.05935115370101465</v>
       </c>
       <c r="K2">
-        <v>14.846</v>
+        <v>28.58</v>
       </c>
       <c r="L2">
-        <v>0.03924398625429554</v>
+        <v>0.05895214521452145</v>
       </c>
       <c r="M2">
-        <v>8.446</v>
+        <v>12.0772</v>
       </c>
       <c r="N2">
-        <v>0.03123520710059172</v>
+        <v>0.04380558578164672</v>
       </c>
       <c r="O2">
-        <v>0.5689074498181328</v>
+        <v>0.4225752274317705</v>
       </c>
       <c r="P2">
-        <v>8.379999999999999</v>
+        <v>12.0772</v>
       </c>
       <c r="Q2">
-        <v>0.03099112426035503</v>
+        <v>0.04380558578164672</v>
       </c>
       <c r="R2">
-        <v>0.5644618078943823</v>
+        <v>0.4225752274317705</v>
       </c>
       <c r="S2">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.007814349988160076</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>12</v>
+        <v>17.44</v>
       </c>
       <c r="V2">
-        <v>0.04437869822485208</v>
+        <v>0.06325716358360536</v>
       </c>
       <c r="W2">
-        <v>0.0860310421286031</v>
+        <v>0.1230889235569423</v>
       </c>
       <c r="X2">
-        <v>0.06315785373265011</v>
+        <v>0.06345807899599111</v>
       </c>
       <c r="Y2">
-        <v>0.022873188395953</v>
+        <v>0.05963084456095118</v>
       </c>
       <c r="Z2">
-        <v>1.681766855456073</v>
+        <v>2.086886394824474</v>
       </c>
       <c r="AA2">
-        <v>0.09328364190109803</v>
+        <v>0.1210294192434357</v>
       </c>
       <c r="AB2">
-        <v>0.06315785373265011</v>
+        <v>0.06331852767618502</v>
       </c>
       <c r="AC2">
-        <v>0.03012578816844792</v>
+        <v>0.05771089156725072</v>
       </c>
       <c r="AD2">
-        <v>7.81</v>
+        <v>10.3</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.175806118394853</v>
       </c>
       <c r="AF2">
-        <v>7.81</v>
+        <v>11.47580611839485</v>
       </c>
       <c r="AG2">
-        <v>-4.19</v>
+        <v>-5.964193881605144</v>
       </c>
       <c r="AH2">
-        <v>0.02807231947090328</v>
+        <v>0.03996090852327472</v>
       </c>
       <c r="AI2">
-        <v>0.03194143388818453</v>
+        <v>0.04373804996797797</v>
       </c>
       <c r="AJ2">
-        <v>-0.0157394538146576</v>
+        <v>-0.02211124272832835</v>
       </c>
       <c r="AK2">
-        <v>-0.01802073029117027</v>
+        <v>-0.02435002858962248</v>
       </c>
       <c r="AL2">
-        <v>1.033</v>
+        <v>0.307</v>
       </c>
       <c r="AM2">
-        <v>1.033</v>
+        <v>0.114</v>
       </c>
       <c r="AN2">
-        <v>0.3359139784946236</v>
+        <v>0.2529469548133595</v>
       </c>
       <c r="AO2">
-        <v>19.80638915779284</v>
+        <v>120.5211726384365</v>
       </c>
       <c r="AP2">
-        <v>-0.1802150537634409</v>
+        <v>-0.1464684155600477</v>
       </c>
       <c r="AQ2">
-        <v>19.80638915779284</v>
+        <v>324.5614035087719</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0679</v>
+        <v>0.0824</v>
       </c>
       <c r="E3">
-        <v>0.0919</v>
+        <v>0.132</v>
       </c>
       <c r="G3">
-        <v>0.09302325581395349</v>
+        <v>0.08353221957040573</v>
       </c>
       <c r="H3">
-        <v>0.09302325581395349</v>
+        <v>0.08353221957040573</v>
       </c>
       <c r="I3">
-        <v>0.07540250447227191</v>
+        <v>0.0803500397772474</v>
       </c>
       <c r="J3">
-        <v>0.06224757954537745</v>
+        <v>0.06410129563624692</v>
       </c>
       <c r="K3">
-        <v>6.53</v>
+        <v>7.89</v>
       </c>
       <c r="L3">
-        <v>0.05840787119856888</v>
+        <v>0.06276849642004773</v>
       </c>
       <c r="M3">
-        <v>4.51</v>
+        <v>4.92</v>
       </c>
       <c r="N3">
-        <v>0.06061827956989246</v>
+        <v>0.05956416464891041</v>
       </c>
       <c r="O3">
-        <v>0.6906584992343031</v>
+        <v>0.623574144486692</v>
       </c>
       <c r="P3">
-        <v>4.51</v>
+        <v>4.92</v>
       </c>
       <c r="Q3">
-        <v>0.06061827956989246</v>
+        <v>0.05956416464891041</v>
       </c>
       <c r="R3">
-        <v>0.6906584992343031</v>
+        <v>0.623574144486692</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,31 +773,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4.61</v>
+        <v>6.81</v>
       </c>
       <c r="V3">
-        <v>0.06196236559139785</v>
+        <v>0.0824455205811138</v>
       </c>
       <c r="W3">
-        <v>0.1046474358974359</v>
+        <v>0.1230889235569423</v>
       </c>
       <c r="X3">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y3">
-        <v>0.04148958216478579</v>
+        <v>0.06006278658196247</v>
       </c>
       <c r="Z3">
-        <v>2.038286235186873</v>
+        <v>2.112960161371659</v>
       </c>
       <c r="AA3">
-        <v>0.1268783845610428</v>
+        <v>0.1354434839716967</v>
       </c>
       <c r="AB3">
-        <v>0.06315785373265011</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC3">
-        <v>0.0637205308283927</v>
+        <v>0.07241734699671691</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-4.61</v>
+        <v>-6.81</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -818,28 +818,28 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.06605530878349333</v>
+        <v>-0.08985354268373137</v>
       </c>
       <c r="AK3">
-        <v>-0.07749201546478401</v>
+        <v>-0.1150532184490623</v>
       </c>
       <c r="AL3">
-        <v>0.5580000000000001</v>
+        <v>0.304</v>
       </c>
       <c r="AM3">
-        <v>0.5580000000000001</v>
+        <v>0.304</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>15.10752688172043</v>
+        <v>33.22368421052632</v>
       </c>
       <c r="AP3">
-        <v>-0.461</v>
+        <v>-0.5675</v>
       </c>
       <c r="AQ3">
-        <v>15.10752688172043</v>
+        <v>33.22368421052632</v>
       </c>
     </row>
     <row r="4">
@@ -859,121 +859,121 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.174</v>
+        <v>0.13</v>
       </c>
       <c r="E4">
-        <v>0.127</v>
+        <v>0.245</v>
       </c>
       <c r="G4">
-        <v>0.1099630996309963</v>
+        <v>0.1306755260243632</v>
       </c>
       <c r="H4">
-        <v>0.1099630996309963</v>
+        <v>0.1306755260243632</v>
       </c>
       <c r="I4">
-        <v>0.1266912669126691</v>
+        <v>0.1604079598706648</v>
       </c>
       <c r="J4">
-        <v>0.09544075440754408</v>
+        <v>0.1222568775230472</v>
       </c>
       <c r="K4">
-        <v>7.76</v>
+        <v>11.1</v>
       </c>
       <c r="L4">
-        <v>0.09544895448954489</v>
+        <v>0.1229235880398671</v>
       </c>
       <c r="M4">
-        <v>0.266</v>
+        <v>3.7</v>
       </c>
       <c r="N4">
-        <v>0.002068429237947123</v>
+        <v>0.03162393162393162</v>
       </c>
       <c r="O4">
-        <v>0.03427835051546392</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="P4">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="Q4">
-        <v>0.001555209953343702</v>
+        <v>0.03162393162393162</v>
       </c>
       <c r="R4">
-        <v>0.02577319587628866</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="S4">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.2481203007518797</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>3.76</v>
+        <v>4.43</v>
       </c>
       <c r="V4">
-        <v>0.02923794712286159</v>
+        <v>0.03786324786324786</v>
       </c>
       <c r="W4">
-        <v>0.0860310421286031</v>
+        <v>0.1183368869936034</v>
       </c>
       <c r="X4">
-        <v>0.06315785373265011</v>
+        <v>0.06345807899599111</v>
       </c>
       <c r="Y4">
-        <v>0.022873188395953</v>
+        <v>0.0548788079976123</v>
       </c>
       <c r="Z4">
-        <v>0.9773984130800673</v>
+        <v>0.989960006304103</v>
       </c>
       <c r="AA4">
-        <v>0.09328364190109803</v>
+        <v>0.1210294192434357</v>
       </c>
       <c r="AB4">
-        <v>0.06315785373265011</v>
+        <v>0.06331852767618502</v>
       </c>
       <c r="AC4">
-        <v>0.03012578816844792</v>
+        <v>0.05771089156725072</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.175806118394853</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.175806118394853</v>
       </c>
       <c r="AG4">
-        <v>-3.76</v>
+        <v>-3.254193881605147</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.009949634845027984</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.01146280163801702</v>
       </c>
       <c r="AJ4">
-        <v>-0.03011855174623518</v>
+        <v>-0.02860935266675192</v>
       </c>
       <c r="AK4">
-        <v>-0.0412552117621242</v>
+        <v>-0.03315672885379902</v>
       </c>
       <c r="AL4">
-        <v>0.022</v>
+        <v>0.003</v>
       </c>
       <c r="AM4">
-        <v>0.022</v>
+        <v>0.003</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>468.1818181818182</v>
+        <v>4866.666666666666</v>
       </c>
       <c r="AP4">
-        <v>-0.3514018691588785</v>
+        <v>-0.2166573822639911</v>
       </c>
       <c r="AQ4">
-        <v>468.1818181818182</v>
+        <v>4866.666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -984,7 +984,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Post and Telecommunication Joint Stock Insurance Corporation (HNX:PTI)</t>
+          <t>Post &amp; Telecommunication Joint Stock Insurance Corporation (HNX:PTI)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -993,46 +993,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.226</v>
+        <v>0.267</v>
       </c>
       <c r="E5">
-        <v>-0.286</v>
+        <v>0.235</v>
       </c>
       <c r="G5">
-        <v>0.01916846652267819</v>
+        <v>0.0251860119047619</v>
       </c>
       <c r="H5">
-        <v>0.01916846652267819</v>
+        <v>0.0251860119047619</v>
       </c>
       <c r="I5">
-        <v>0.009341252699784018</v>
+        <v>0.04575892857142858</v>
       </c>
       <c r="J5">
-        <v>0.006544751891546791</v>
+        <v>0.03570696721311475</v>
       </c>
       <c r="K5">
-        <v>0.556</v>
+        <v>9.59</v>
       </c>
       <c r="L5">
-        <v>0.003002159827213823</v>
+        <v>0.03567708333333333</v>
       </c>
       <c r="M5">
-        <v>3.67</v>
+        <v>3.4572</v>
       </c>
       <c r="N5">
-        <v>0.05445103857566765</v>
+        <v>0.04542969776609724</v>
       </c>
       <c r="O5">
-        <v>6.600719424460431</v>
+        <v>0.3605005213764338</v>
       </c>
       <c r="P5">
-        <v>3.67</v>
+        <v>3.4572</v>
       </c>
       <c r="Q5">
-        <v>0.05445103857566765</v>
+        <v>0.04542969776609724</v>
       </c>
       <c r="R5">
-        <v>6.600719424460431</v>
+        <v>0.3605005213764338</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1041,73 +1041,70 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>3.63</v>
+        <v>6.2</v>
       </c>
       <c r="V5">
-        <v>0.05385756676557863</v>
+        <v>0.08147174770039423</v>
       </c>
       <c r="W5">
-        <v>0.0069937106918239</v>
+        <v>0.123741935483871</v>
       </c>
       <c r="X5">
-        <v>0.06723275981754027</v>
+        <v>0.06884352683928775</v>
       </c>
       <c r="Y5">
-        <v>-0.06023904912571638</v>
+        <v>0.05489840864458322</v>
       </c>
       <c r="Z5">
-        <v>2.130891016200294</v>
+        <v>3.294036910860028</v>
       </c>
       <c r="AA5">
-        <v>0.01394615300895694</v>
+        <v>0.1176200679748688</v>
       </c>
       <c r="AB5">
-        <v>0.06559246850451299</v>
+        <v>0.06613080953924051</v>
       </c>
       <c r="AC5">
-        <v>-0.05164631549555605</v>
+        <v>0.05148925843562832</v>
       </c>
       <c r="AD5">
-        <v>7.81</v>
+        <v>10.3</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>7.81</v>
+        <v>10.3</v>
       </c>
       <c r="AG5">
-        <v>4.18</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.1038425741257811</v>
+        <v>0.119212962962963</v>
       </c>
       <c r="AI5">
-        <v>0.09133434686001636</v>
+        <v>0.1098081023454158</v>
       </c>
       <c r="AJ5">
-        <v>0.05839620005588152</v>
+        <v>0.05112219451371573</v>
       </c>
       <c r="AK5">
-        <v>0.05105031753786028</v>
+        <v>0.04680365296803654</v>
       </c>
       <c r="AL5">
-        <v>0.453</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.453</v>
+        <v>-0.193</v>
       </c>
       <c r="AN5">
-        <v>3.062745098039216</v>
-      </c>
-      <c r="AO5">
-        <v>3.818984547461369</v>
+        <v>0.7518248175182483</v>
       </c>
       <c r="AP5">
-        <v>1.63921568627451</v>
+        <v>0.2992700729927008</v>
       </c>
       <c r="AQ5">
-        <v>3.818984547461369</v>
+        <v>-63.73056994818653</v>
       </c>
     </row>
   </sheetData>
